--- a/clinical_study_report_summary.xlsx
+++ b/clinical_study_report_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,271 +452,91 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Table 14.1.1: Demographics and Baseline Characteristics 4</t>
+          <t>Table 1.1 Incidence of AEs by Preferred Term and System Organ Class</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>(1) Table 1.1 Incidence of AEs by Preferred Term and System Organ Class | (2) System Organ Preferred Term Treatment Group 1 Treatment Group 2 | (3) Class (N=X) (N=Y) | (4) Any System Organ | (5) Class | (6) Any Preferred Term n (%) n (%) | (7) Blood and | (8) Lymphatic System | (9) Disorders | (10) Anemia n (%) n (%) | (11) Neutropenia n (%) n (%) | (12) Gastrointestinal | (13) Disorders | (14) Diarrhea n (%) n (%) | (15) Nausea n (%) n (%) | (16) Vomiting n (%) n (%) | (17) General Disorders | (18) and Administration | (19) Site Conditions | (20) Fatigue n (%) n (%) | (21) Pyrexia n (%) n (%) | (22) Nervous System | (23) Disorders | (24) Headache n (%) n (%) | (25) Dizziness n (%) n (%) | (26) Skin and | (27) Subcutaneous | (28) Tissue Disorders | (29) Rash n (%) n (%)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Table 14.1.1: Demographics and Baseline Characteristics</t>
+          <t>Table 1.2 Incidence of Serious AEs by Preferred Term and System Organ Class</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>(1) AE: Adverse event | (2) Adverse events before treatment start date are not considered. | (3) Adverse events before treatment start date are not considered. | (4) AE’s also include treatment emergent events. | (5) Table 1.2 Incidence of Serious AEs by Preferred Term and System Organ Class | (6) System Organ Preferred Term Treatment Group 1 Treatment Group 2 | (7) System Organ Preferred Term Treatment Group 1 Treatment Group 2 | (8) Class (N=X) (N=Y) | (9) Any System Organ | (10) Class | (11) Class | (12) Any Preferred Term n (%) n (%) | (13) Blood and | (14) Lymphatic System | (15) Lymphatic System | (16) Disorders | (17) Anemia n (%) n (%) | (18) Neutropenia n (%) n (%) | (19) Gastrointestinal | (20) Gastrointestinal | (21) Disorders | (22) Diarrhea n (%) n (%) | (23) Nausea n (%) n (%) | (24) Vomiting n (%) n (%) | (25) General Disorders | (26) and Administration | (27) Site Conditions | (28) Site Conditions | (29) Fatigue n (%) n (%) | (30) Pyrexia n (%) n (%) | (31) Nervous System | (32) Nervous System | (33) Disorders | (34) Headache n (%) n (%) | (35) Dizziness n (%) n (%)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Table 14.1.2: Medical History</t>
+          <t>Table 1.3 Incidence of AEs Leading to Discontinuation by Preferred Term and System</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>(1) Subcutaneous | (2) Tissue Disorders | (3) Tissue Disorders | (4) Rash n (%) n (%) | (5) Rash n (%) n (%) | (6) Pruritus n (%) n (%) | (7) AE: Adverse event | (8) AE: Adverse event | (9) Serious AE: Serious Adverse event | (10) Adverse events before treatment start date are not considered. | (11) AE’s also include treatment emergent events. | (12) Table 1.3 Incidence of AEs Leading to Discontinuation by Preferred Term and System | (13) Table 1.3 Incidence of AEs Leading to Discontinuation by Preferred Term and System | (14) Organ Class | (15) System Organ Preferred Term Treatment Group 1 Treatment Group 2 | (16) Class (N=X) (N=Y) | (17) Any System Organ | (18) Class | (19) Any Preferred Term n (%) n (%) | (20) Blood and | (21) Blood and | (22) Lymphatic System | (23) Disorders | (24) Disorders | (25) Anemia n (%) n (%) | (26) Neutropenia n (%) n (%) | (27) Gastrointestinal | (28) Disorders | (29) Diarrhea n (%) n (%) | (30) Nausea n (%) n (%) | (31) Vomiting n (%) n (%) | (32) General Disorders | (33) General Disorders | (34) and Administration | (35) Site Conditions | (36) Site Conditions | (37) Fatigue n (%) n (%) | (38) Fatigue n (%) n (%) | (39) Pyrexia n (%) n (%)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Table 14.2.1: Primary Efficacy Analysis - Change from Baseline at Week 12</t>
+          <t>Table 2.1 Summary of Laboratory Values - Hematology</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>(1) Nervous System | (2) Disorders | (3) Headache n (%) n (%) | (4) Headache n (%) n (%) | (5) Dizziness n (%) n (%) | (6) Skin and | (7) Subcutaneous | (8) Subcutaneous | (9) Tissue Disorders | (10) Rash n (%) n (%) | (11) Pruritus n (%) n (%) | (12) Pruritus n (%) n (%) | (13) AE: Adverse event | (14) Adverse events leading to discontinuation | (15) Adverse events leading to discontinuation | (16) Adverse events before treatment start date are not considered. | (17) AE’s also include treatment emergent events. | (18) Table 2.1 Summary of Laboratory Values - Hematology | (19) Parameter Statistic Treatment Group 1 Treatment Group 2 | (20) (N=X) (N=Y) | (21) (N=X) (N=Y) | (22) Hemoglobin (g/dL) N | (23) Hemoglobin (g/dL) N | (24) Mean (SD) | (25) Median | (26) Min, Max | (27) White Blood Cell N | (28) Count (x10^9/L) | (29) Count (x10^9/L) | (30) Count (x10^9/L) | (31) Mean (SD) | (32) Mean (SD) | (33) Median | (34) Min, Max | (35) Platelet Count N | (36) (x10^9/L) | (37) (x10^9/L) | (38) Mean (SD) | (39) Mean (SD)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Table 14.3.1: Treatment-Emergent Adverse Events by System Organ Class and Preferred Term</t>
+          <t>Table 2.2 Summary of Laboratory Values - Chemistry</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>(1) Median | (2) Min, Max | (3) Summary statistics for laboratory parameters. | (4) Values presented at baseline and each post-baseline visit. | (5) Values presented at baseline and each post-baseline visit. | (6) Table 2.2 Summary of Laboratory Values - Chemistry | (7) Table 2.2 Summary of Laboratory Values - Chemistry | (8) Parameter Statistic Treatment Group 1 Treatment Group 2 | (9) (N=X) (N=Y) | (10) Alanine N | (11) Aminotransferase | (12) (U/L) | (13) Mean (SD) | (14) Median | (15) Min, Max | (16) Aspartate N | (17) Aminotransferase | (18) (U/L) | (19) Mean (SD) | (20) Median | (21) Min, Max | (22) Total Bilirubin N | (23) (µmol/L) | (24) Mean (SD) | (25) Median | (26) Min, Max | (27) Creatinine (µmol/L) N | (28) Mean (SD) | (29) Mean (SD) | (30) Median</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Table 14.3.2: Summary of Laboratory Test Results - Change from Baseline</t>
+          <t>Table 2.3 Summary of Laboratory Values - Urinalysis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>11</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Table 14.3.3: Summary of Vital Signs - Change from Baseline</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>14</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Figure 14.2.1: Primary Endpoint Over Time</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Note: Error bars represent standard error of the mean.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>15</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Figure 14.2.2: Subgroup Analysis of Primary Endpoint</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>16</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Figure 14.3.1: Adverse Events by System Organ Class</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>17</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Listing 16.2.1: Patient Disposition</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Note: This listing provides patient disposition information for all randomized patients.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>18</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Listing 16.2.2: Protocol Deviations</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>19</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Listing 16.2.3: Patients Excluded from Analysis Populations</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>20</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Listing 16.2.4: Demographic Data</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>21</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Listing 16.2.5: Concomitant Medications</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>22</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Listing 16.2.6: Individual Efficacy Response Data</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>23</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Listing 16.2.7: Adverse Event Listings</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>24</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Listing 16.2.8: Individual Laboratory Measurements</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>(1) (N=X) (N=Y) | (2) Protein N | (3) (Qualitative) | (4) Negative n (%) n (%) | (5) Trace | (6) Figure 2.2 Kaplan-Meier Plot for Time to Discontinuation Due to Adverse Event | (7) 1.0 +-----------------------------------------------------+ | (8) | | | (9) | | | (10) | +---------Treatment Group 1 | | (11) | / | | (12) | / | | (13) | / | | (14) | / | | (15) | +-----------Treatment Group 2 | | (16) | / | | (17) | / | | (18) | / | | (19) 0.0 +-----------------------------------------------------+ | (20) 0.0 +-----------------------------------------------------+ | (21) 0 Time (Days) Max Time | (22) X-axis: Time (Days) | (23) X-axis: Time (Days) | (24) Y-axis: Probability of No Discontinuation | (25) Description: Kaplan-Meier plot showing the probability of not | (26) discontinuing due to an adverse event over time for each treatment | (27) group. | (28) group. | (29) Figure 2.3 Kaplan-Meier Plot for Overall Survival | (30) 1.0 +-----------------------------------------------------+ | (31) 1.0 +-----------------------------------------------------+ | (32) | | | (33) | | | (34) | +---------Treatment Group 1 | | (35) | / | | (36) | / | | (37) | / | | (38) | / | | (39) | / |</t>
         </is>
       </c>
     </row>

--- a/clinical_study_report_summary.xlsx
+++ b/clinical_study_report_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Footnotes</t>
         </is>
@@ -452,91 +462,1151 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Table 1.1 Incidence of AEs by Preferred Term and System Organ Class</t>
+          <t>Table 14.1.1.1 ............................................................................................................................... 10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(1) Table 1.1 Incidence of AEs by Preferred Term and System Organ Class | (2) System Organ Preferred Term Treatment Group 1 Treatment Group 2 | (3) Class (N=X) (N=Y) | (4) Any System Organ | (5) Class | (6) Any Preferred Term n (%) n (%) | (7) Blood and | (8) Lymphatic System | (9) Disorders | (10) Anemia n (%) n (%) | (11) Neutropenia n (%) n (%) | (12) Gastrointestinal | (13) Disorders | (14) Diarrhea n (%) n (%) | (15) Nausea n (%) n (%) | (16) Vomiting n (%) n (%) | (17) General Disorders | (18) and Administration | (19) Site Conditions | (20) Fatigue n (%) n (%) | (21) Pyrexia n (%) n (%) | (22) Nervous System | (23) Disorders | (24) Headache n (%) n (%) | (25) Dizziness n (%) n (%) | (26) Skin and | (27) Subcutaneous | (28) Tissue Disorders | (29) Rash n (%) n (%)</t>
+          <t>Subject Disposition</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Table 1.2 Incidence of Serious AEs by Preferred Term and System Organ Class</t>
+          <t>Table 14.1.1.1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(1) AE: Adverse event | (2) Adverse events before treatment start date are not considered. | (3) Adverse events before treatment start date are not considered. | (4) AE’s also include treatment emergent events. | (5) Table 1.2 Incidence of Serious AEs by Preferred Term and System Organ Class | (6) System Organ Preferred Term Treatment Group 1 Treatment Group 2 | (7) System Organ Preferred Term Treatment Group 1 Treatment Group 2 | (8) Class (N=X) (N=Y) | (9) Any System Organ | (10) Class | (11) Class | (12) Any Preferred Term n (%) n (%) | (13) Blood and | (14) Lymphatic System | (15) Lymphatic System | (16) Disorders | (17) Anemia n (%) n (%) | (18) Neutropenia n (%) n (%) | (19) Gastrointestinal | (20) Gastrointestinal | (21) Disorders | (22) Diarrhea n (%) n (%) | (23) Nausea n (%) n (%) | (24) Vomiting n (%) n (%) | (25) General Disorders | (26) and Administration | (27) Site Conditions | (28) Site Conditions | (29) Fatigue n (%) n (%) | (30) Pyrexia n (%) n (%) | (31) Nervous System | (32) Nervous System | (33) Disorders | (34) Headache n (%) n (%) | (35) Dizziness n (%) n (%)</t>
+          <t>Subject Disposition</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Table 1.3 Incidence of AEs Leading to Discontinuation by Preferred Term and System</t>
+          <t>Table 14.1.2.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(1) Subcutaneous | (2) Tissue Disorders | (3) Tissue Disorders | (4) Rash n (%) n (%) | (5) Rash n (%) n (%) | (6) Pruritus n (%) n (%) | (7) AE: Adverse event | (8) AE: Adverse event | (9) Serious AE: Serious Adverse event | (10) Adverse events before treatment start date are not considered. | (11) AE’s also include treatment emergent events. | (12) Table 1.3 Incidence of AEs Leading to Discontinuation by Preferred Term and System | (13) Table 1.3 Incidence of AEs Leading to Discontinuation by Preferred Term and System | (14) Organ Class | (15) System Organ Preferred Term Treatment Group 1 Treatment Group 2 | (16) Class (N=X) (N=Y) | (17) Any System Organ | (18) Class | (19) Any Preferred Term n (%) n (%) | (20) Blood and | (21) Blood and | (22) Lymphatic System | (23) Disorders | (24) Disorders | (25) Anemia n (%) n (%) | (26) Neutropenia n (%) n (%) | (27) Gastrointestinal | (28) Disorders | (29) Diarrhea n (%) n (%) | (30) Nausea n (%) n (%) | (31) Vomiting n (%) n (%) | (32) General Disorders | (33) General Disorders | (34) and Administration | (35) Site Conditions | (36) Site Conditions | (37) Fatigue n (%) n (%) | (38) Fatigue n (%) n (%) | (39) Pyrexia n (%) n (%)</t>
+          <t>Summary of Demographic and Baseline Characteristics</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Table 2.1 Summary of Laboratory Values - Hematology</t>
+          <t>Table 14.1.2.1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(1) Nervous System | (2) Disorders | (3) Headache n (%) n (%) | (4) Headache n (%) n (%) | (5) Dizziness n (%) n (%) | (6) Skin and | (7) Subcutaneous | (8) Subcutaneous | (9) Tissue Disorders | (10) Rash n (%) n (%) | (11) Pruritus n (%) n (%) | (12) Pruritus n (%) n (%) | (13) AE: Adverse event | (14) Adverse events leading to discontinuation | (15) Adverse events leading to discontinuation | (16) Adverse events before treatment start date are not considered. | (17) AE’s also include treatment emergent events. | (18) Table 2.1 Summary of Laboratory Values - Hematology | (19) Parameter Statistic Treatment Group 1 Treatment Group 2 | (20) (N=X) (N=Y) | (21) (N=X) (N=Y) | (22) Hemoglobin (g/dL) N | (23) Hemoglobin (g/dL) N | (24) Mean (SD) | (25) Median | (26) Min, Max | (27) White Blood Cell N | (28) Count (x10^9/L) | (29) Count (x10^9/L) | (30) Count (x10^9/L) | (31) Mean (SD) | (32) Mean (SD) | (33) Median | (34) Min, Max | (35) Platelet Count N | (36) (x10^9/L) | (37) (x10^9/L) | (38) Mean (SD) | (39) Mean (SD)</t>
+          <t>Summary of Demographic and Baseline Characteristics</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Table 2.2 Summary of Laboratory Values - Chemistry</t>
+          <t>Table 14.2.1.1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(1) Median | (2) Min, Max | (3) Summary statistics for laboratory parameters. | (4) Values presented at baseline and each post-baseline visit. | (5) Values presented at baseline and each post-baseline visit. | (6) Table 2.2 Summary of Laboratory Values - Chemistry | (7) Table 2.2 Summary of Laboratory Values - Chemistry | (8) Parameter Statistic Treatment Group 1 Treatment Group 2 | (9) (N=X) (N=Y) | (10) Alanine N | (11) Aminotransferase | (12) (U/L) | (13) Mean (SD) | (14) Median | (15) Min, Max | (16) Aspartate N | (17) Aminotransferase | (18) (U/L) | (19) Mean (SD) | (20) Median | (21) Min, Max | (22) Total Bilirubin N | (23) (µmol/L) | (24) Mean (SD) | (25) Median | (26) Min, Max | (27) Creatinine (µmol/L) N | (28) Mean (SD) | (29) Mean (SD) | (30) Median</t>
+          <t>Summary of 24 hour Urinary Free Cortisol</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Table 2.3 Summary of Laboratory Values - Urinalysis</t>
+          <t>Table 14.2.2.1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(1) (N=X) (N=Y) | (2) Protein N | (3) (Qualitative) | (4) Negative n (%) n (%) | (5) Trace | (6) Figure 2.2 Kaplan-Meier Plot for Time to Discontinuation Due to Adverse Event | (7) 1.0 +-----------------------------------------------------+ | (8) | | | (9) | | | (10) | +---------Treatment Group 1 | | (11) | / | | (12) | / | | (13) | / | | (14) | / | | (15) | +-----------Treatment Group 2 | | (16) | / | | (17) | / | | (18) | / | | (19) 0.0 +-----------------------------------------------------+ | (20) 0.0 +-----------------------------------------------------+ | (21) 0 Time (Days) Max Time | (22) X-axis: Time (Days) | (23) X-axis: Time (Days) | (24) Y-axis: Probability of No Discontinuation | (25) Description: Kaplan-Meier plot showing the probability of not | (26) discontinuing due to an adverse event over time for each treatment | (27) group. | (28) group. | (29) Figure 2.3 Kaplan-Meier Plot for Overall Survival | (30) 1.0 +-----------------------------------------------------+ | (31) 1.0 +-----------------------------------------------------+ | (32) | | | (33) | | | (34) | +---------Treatment Group 1 | | (35) | / | | (36) | / | | (37) | / | | (38) | / | | (39) | / |</t>
+          <t>Summary of Pharmacokinetic Plasma Concentrations</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Table 14.2.2.2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Pharmacokinetic Plasma Parameter Listing and Summary</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Table 14.3.1.1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Overview of Adverse Events</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Table 14.3.1.2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Summary of Treatment-Emergent Adverse Events by System Organ Class and Preferred Term</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>18</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Table 14.3.1.3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Summary of Study Drug Related Treatment-Emergent Adverse Events by System Organ Class and Preferred Term</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>19</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Table 14.3.3.1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Shift Table of ALT, AST, Alkaline Phosphatase, and Total Bilirubin</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Table 14.3.3.1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Shift Table of ALT, AST, Alkaline Phosphatase, and Total Bilirubin</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>21</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Figure 14.2.1.1 .............................................................................................................................. 22</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mean Nevanimibe Plasma Concentrations</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>22</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Figure 14.2.1.1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mean Nevanimibe Plasma Concentrations</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>23</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Figure 14.2.1.2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Individual ATR-101 Plasma Concentrations</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>24</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Listing 16.2.1.1 ............................................................................................................................. 27</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Subject Disposition: Informed Consent and Enrollment</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>25</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Listing 16.2.6.1 ............................................................................................................................. 42</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>24 Hour Urine Laboratory Results</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>26</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Listing 16.2.9.3 ............................................................................................................................. 54</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Physical Examination</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>27</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Listing 16.2.1.1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Subject Disposition: Informed Consent and Enrollment</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>28</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Listing 16.2.1.2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Inclusion/Exclusion Criteria Not Met</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Listing 16.2.1.3</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Subject Disposition: End of Study</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>30</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Listing 16.2.1.4</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Follow-Up Telephone Visit</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Listing 16.2.2.1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Protocol Deviations</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Listing 16.2.4.1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Demographics</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Listing 16.2.4.2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Cushing’s Syndrome Medical History</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Listing 16.2.4.3</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Tobacco Use</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Listing 16.2.4.4</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>General Medical History</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Listing 16.2.4.5</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Pituitary Radiotherapy</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Listing 16.2.4.6</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Prior and Concomitant Medications</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Listing 16.2.4.7</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Concomitant Procedures</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Listing 16.2.5.1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Study Drug Administration</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>40</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Listing 16.2.5.2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Study Drug Accountability</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>41</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Listing 16.2.5.3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Study Drug Exposure and Compliance</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Listing 16.2.6.1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>24 Hour Urine Laboratory Results</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>43</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Listing 16.2.6.2</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ARUP Laboratories: Plasma and Serum Samples</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>44</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Listing 16.2.6.3</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ARUP Laboratories: Urine Samples</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>45</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Listing 16.2.6.4</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Salivary Cortisol</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>46</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Listing 16.2.6.5</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Hormones</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>47</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Listing 16.2.6.6</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Pharmacokinetic Samples</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>All Dosed Subjects</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>48</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Listing 16.2.7.1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Adverse Events</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>49</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Listing 16.2.8.1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Safety Laboratory Values: Chemistry</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>50</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Listing 16.2.8.2</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Safety Laboratory Values: Hematology</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Screened Subjects</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>51</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Listing 16.2.8.7</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Serum and Urine Pregnancy Test</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>52</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Listing 16.2.9.1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Vital Signs</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>53</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Listing 16.2.9.2</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>12-Lead Electrocardiogram</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>54</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Listing 16.2.9.3</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Physical Examination</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>All Subjects</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
